--- a/PBS_assy_sequence.xlsx
+++ b/PBS_assy_sequence.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woojonghun/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC7F08-42F2-8A4B-96BA-C19CEF0C574C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85749716-835C-B54E-BF17-2E4ECC40D333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="10280" windowWidth="27900" windowHeight="16940" activeTab="2" xr2:uid="{105DBEF7-2957-DA49-A4ED-B6D56702FAF8}"/>
+    <workbookView xWindow="9560" yWindow="10280" windowWidth="27900" windowHeight="16940" xr2:uid="{105DBEF7-2957-DA49-A4ED-B6D56702FAF8}"/>
   </bookViews>
   <sheets>
-    <sheet name="gen_init" sheetId="1" r:id="rId1"/>
+    <sheet name="gen_000" sheetId="1" r:id="rId1"/>
     <sheet name="gen_003" sheetId="2" r:id="rId2"/>
     <sheet name="gen_fin" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="71">
-  <si>
-    <t>중조탑재</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="70">
   <si>
     <t>2471_631</t>
   </si>
@@ -618,1995 +615,1806 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAF230B4-4ABD-0B4C-A5C7-952DFF9B148F}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
       </c>
-      <c r="I1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2">
-        <v>2471</v>
-      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="B2">
-        <v>433</v>
+        <v>3.3</v>
       </c>
       <c r="C2">
+        <v>2.8</v>
+      </c>
+      <c r="D2">
+        <v>0.5</v>
+      </c>
+      <c r="E2">
+        <v>2.8</v>
+      </c>
+      <c r="F2">
+        <v>4.7</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2.6</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>2.6</v>
+      </c>
+      <c r="F3">
+        <v>1.6</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2.6</v>
+      </c>
+      <c r="D4">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>2.6</v>
+      </c>
+      <c r="F4">
+        <v>1.6</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1.9</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>1.9</v>
+      </c>
+      <c r="F5">
+        <v>1.4</v>
+      </c>
+      <c r="G5">
+        <v>1.7</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1.9</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>1.9</v>
+      </c>
+      <c r="F6">
+        <v>1.4</v>
+      </c>
+      <c r="G6">
+        <v>1.7</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>3.5</v>
+      </c>
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>2.6</v>
+      </c>
+      <c r="F7">
+        <v>1.8</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1.9</v>
+      </c>
+      <c r="D8">
+        <v>0.5</v>
+      </c>
+      <c r="E8">
+        <v>1.9</v>
+      </c>
+      <c r="F8">
+        <v>1.4</v>
+      </c>
+      <c r="G8">
+        <v>1.7</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1.9</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <v>1.9</v>
+      </c>
+      <c r="F9">
+        <v>1.4</v>
+      </c>
+      <c r="G9">
+        <v>1.7</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.7</v>
+      </c>
+      <c r="D10">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>0.7</v>
+      </c>
+      <c r="F10">
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <v>1.3</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0.5</v>
+      </c>
+      <c r="C11">
+        <v>0.7</v>
+      </c>
+      <c r="D11">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>0.7</v>
+      </c>
+      <c r="F11">
+        <v>0.8</v>
+      </c>
+      <c r="G11">
+        <v>1.3</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12">
         <v>3.3</v>
       </c>
-      <c r="D2">
+      <c r="C12">
         <v>2.8</v>
       </c>
-      <c r="E2">
-        <v>0.5</v>
-      </c>
-      <c r="F2">
+      <c r="D12">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
         <v>2.8</v>
       </c>
-      <c r="G2">
+      <c r="F12">
         <v>4.7</v>
       </c>
-      <c r="H2">
+      <c r="G12">
         <v>4</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>2.6</v>
+      </c>
+      <c r="D13">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>2.6</v>
+      </c>
+      <c r="F13">
+        <v>1.6</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>2.6</v>
+      </c>
+      <c r="D14">
+        <v>0.5</v>
+      </c>
+      <c r="E14">
+        <v>2.6</v>
+      </c>
+      <c r="F14">
+        <v>1.6</v>
+      </c>
+      <c r="G14">
+        <v>2</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15">
+        <v>3.3</v>
+      </c>
+      <c r="C15">
+        <v>2.8</v>
+      </c>
+      <c r="D15">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>2.8</v>
+      </c>
+      <c r="F15">
+        <v>4.7</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3">
-        <v>2471</v>
-      </c>
-      <c r="B3">
-        <v>236</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>2.6</v>
-      </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>2.6</v>
-      </c>
-      <c r="G3">
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1.9</v>
+      </c>
+      <c r="D16">
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <v>1.9</v>
+      </c>
+      <c r="F16">
+        <v>1.4</v>
+      </c>
+      <c r="G16">
+        <v>1.7</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1.9</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
+      </c>
+      <c r="E17">
+        <v>1.9</v>
+      </c>
+      <c r="F17">
+        <v>1.4</v>
+      </c>
+      <c r="G17">
+        <v>1.7</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2.1</v>
+      </c>
+      <c r="D18">
+        <v>0.5</v>
+      </c>
+      <c r="E18">
+        <v>1.9</v>
+      </c>
+      <c r="F18">
+        <v>1.7</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2.1</v>
+      </c>
+      <c r="D19">
+        <v>0.5</v>
+      </c>
+      <c r="E19">
+        <v>1.9</v>
+      </c>
+      <c r="F19">
+        <v>1.7</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20">
+        <v>2.5</v>
+      </c>
+      <c r="C20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.5</v>
+      </c>
+      <c r="E20">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F20">
+        <v>1.5</v>
+      </c>
+      <c r="G20">
+        <v>1.7</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>9.9</v>
+      </c>
+      <c r="C21">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="D21">
+        <v>1.5</v>
+      </c>
+      <c r="E21">
+        <v>10.8</v>
+      </c>
+      <c r="F21">
+        <v>14.100000000000001</v>
+      </c>
+      <c r="G21">
+        <v>12</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>2.6</v>
+      </c>
+      <c r="D22">
+        <v>0.5</v>
+      </c>
+      <c r="E22">
+        <v>2.6</v>
+      </c>
+      <c r="F22">
         <v>1.6</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4">
-        <v>2471</v>
-      </c>
-      <c r="B4">
-        <v>226</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>2.6</v>
-      </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-      <c r="F4">
-        <v>2.6</v>
-      </c>
-      <c r="G4">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2.6</v>
+      </c>
+      <c r="D23">
+        <v>0.5</v>
+      </c>
+      <c r="E23">
+        <v>2.6</v>
+      </c>
+      <c r="F23">
         <v>1.6</v>
       </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5">
-        <v>2471</v>
-      </c>
-      <c r="B5">
-        <v>632</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>1.9</v>
-      </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-      <c r="F5">
-        <v>1.9</v>
-      </c>
-      <c r="G5">
-        <v>1.4</v>
-      </c>
-      <c r="H5">
-        <v>1.7</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6">
-        <v>2471</v>
-      </c>
-      <c r="B6">
-        <v>622</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1.9</v>
-      </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-      <c r="F6">
-        <v>1.9</v>
-      </c>
-      <c r="G6">
-        <v>1.4</v>
-      </c>
-      <c r="H6">
-        <v>1.7</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>5444</v>
-      </c>
-      <c r="B7">
-        <v>203</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>3.5</v>
-      </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-      <c r="F7">
-        <v>2.6</v>
-      </c>
-      <c r="G7">
-        <v>1.8</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
-        <v>2471</v>
-      </c>
-      <c r="B8">
-        <v>633</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8">
-        <v>1.9</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>1.9</v>
-      </c>
-      <c r="G8">
-        <v>1.4</v>
-      </c>
-      <c r="H8">
-        <v>1.7</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>2471</v>
-      </c>
-      <c r="B9">
-        <v>623</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>1.9</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>1.9</v>
-      </c>
-      <c r="G9">
-        <v>1.4</v>
-      </c>
-      <c r="H9">
-        <v>1.7</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10">
-        <v>2470</v>
-      </c>
-      <c r="B10">
-        <v>641</v>
-      </c>
-      <c r="C10">
-        <v>0.5</v>
-      </c>
-      <c r="D10">
-        <v>0.7</v>
-      </c>
-      <c r="E10">
-        <v>0.5</v>
-      </c>
-      <c r="F10">
-        <v>0.7</v>
-      </c>
-      <c r="G10">
-        <v>0.8</v>
-      </c>
-      <c r="H10">
-        <v>1.3</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11">
-        <v>2470</v>
-      </c>
-      <c r="B11">
-        <v>651</v>
-      </c>
-      <c r="C11">
-        <v>0.5</v>
-      </c>
-      <c r="D11">
-        <v>0.7</v>
-      </c>
-      <c r="E11">
-        <v>0.5</v>
-      </c>
-      <c r="F11">
-        <v>0.7</v>
-      </c>
-      <c r="G11">
-        <v>0.8</v>
-      </c>
-      <c r="H11">
-        <v>1.3</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12">
-        <v>2471</v>
-      </c>
-      <c r="B12">
-        <v>422</v>
-      </c>
-      <c r="C12">
-        <v>3.3</v>
-      </c>
-      <c r="D12">
-        <v>2.8</v>
-      </c>
-      <c r="E12">
-        <v>0.5</v>
-      </c>
-      <c r="F12">
-        <v>2.8</v>
-      </c>
-      <c r="G12">
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24">
+        <v>9.8999999999999986</v>
+      </c>
+      <c r="C24">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="D24">
+        <v>1.5</v>
+      </c>
+      <c r="E24">
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="F24">
+        <v>14.100000000000001</v>
+      </c>
+      <c r="G24">
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
         <v>4.7</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13">
-        <v>2434</v>
-      </c>
-      <c r="B13">
-        <v>225</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>2.6</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>2.6</v>
-      </c>
-      <c r="G13">
-        <v>1.6</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14">
-        <v>2434</v>
-      </c>
-      <c r="B14">
-        <v>235</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>2.6</v>
-      </c>
-      <c r="E14">
-        <v>0.5</v>
-      </c>
-      <c r="F14">
-        <v>2.6</v>
-      </c>
-      <c r="G14">
-        <v>1.6</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15">
-        <v>2471</v>
-      </c>
-      <c r="B15">
-        <v>432</v>
-      </c>
-      <c r="C15">
-        <v>3.3</v>
-      </c>
-      <c r="D15">
-        <v>2.8</v>
-      </c>
-      <c r="E15">
-        <v>0.5</v>
-      </c>
-      <c r="F15">
-        <v>2.8</v>
-      </c>
-      <c r="G15">
-        <v>4.7</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16">
-        <v>2471</v>
-      </c>
-      <c r="B16">
-        <v>631</v>
-      </c>
-      <c r="C16">
-        <v>2</v>
-      </c>
-      <c r="D16">
-        <v>1.9</v>
-      </c>
-      <c r="E16">
-        <v>0.5</v>
-      </c>
-      <c r="F16">
-        <v>1.9</v>
-      </c>
-      <c r="G16">
-        <v>1.4</v>
-      </c>
-      <c r="H16">
-        <v>1.7</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17">
-        <v>2471</v>
-      </c>
-      <c r="B17">
-        <v>621</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-      <c r="D17">
-        <v>1.9</v>
-      </c>
-      <c r="E17">
-        <v>0.5</v>
-      </c>
-      <c r="F17">
-        <v>1.9</v>
-      </c>
-      <c r="G17">
-        <v>1.4</v>
-      </c>
-      <c r="H17">
-        <v>1.7</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18">
-        <v>5450</v>
-      </c>
-      <c r="B18">
-        <v>634</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>2.1</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-      <c r="F18">
-        <v>1.9</v>
-      </c>
-      <c r="G18">
-        <v>1.7</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19">
-        <v>5450</v>
-      </c>
-      <c r="B19">
-        <v>624</v>
-      </c>
-      <c r="C19">
-        <v>2</v>
-      </c>
-      <c r="D19">
-        <v>2.1</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-      <c r="F19">
-        <v>1.9</v>
-      </c>
-      <c r="G19">
-        <v>1.7</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20">
-        <v>5445</v>
-      </c>
-      <c r="B20">
-        <v>721</v>
-      </c>
-      <c r="C20">
-        <v>2.5</v>
-      </c>
-      <c r="D20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-      <c r="F20">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G20">
-        <v>1.5</v>
-      </c>
-      <c r="H20">
-        <v>1.7</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21">
-        <v>2434</v>
-      </c>
-      <c r="B21">
-        <v>421</v>
-      </c>
-      <c r="C21">
-        <v>9.9</v>
-      </c>
-      <c r="D21">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="E21">
-        <v>1.5</v>
-      </c>
-      <c r="F21">
-        <v>10.8</v>
-      </c>
-      <c r="G21">
-        <v>14.100000000000001</v>
-      </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22">
-        <v>2434</v>
-      </c>
-      <c r="B22">
-        <v>238</v>
-      </c>
-      <c r="C22">
-        <v>3</v>
-      </c>
-      <c r="D22">
-        <v>2.6</v>
-      </c>
-      <c r="E22">
-        <v>0.5</v>
-      </c>
-      <c r="F22">
-        <v>2.6</v>
-      </c>
-      <c r="G22">
-        <v>1.6</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23">
-        <v>2434</v>
-      </c>
-      <c r="B23">
-        <v>228</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23">
-        <v>2.6</v>
-      </c>
-      <c r="E23">
-        <v>0.5</v>
-      </c>
-      <c r="F23">
-        <v>2.6</v>
-      </c>
-      <c r="G23">
-        <v>1.6</v>
-      </c>
-      <c r="H23">
-        <v>2</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>2434</v>
-      </c>
-      <c r="B24">
-        <v>431</v>
-      </c>
-      <c r="C24">
-        <v>9.8999999999999986</v>
-      </c>
-      <c r="D24">
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="E24">
-        <v>1.5</v>
-      </c>
-      <c r="F24">
-        <v>8.3999999999999986</v>
-      </c>
-      <c r="G24">
-        <v>14.100000000000001</v>
-      </c>
-      <c r="H24">
-        <v>12</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25">
-        <v>5450</v>
-      </c>
-      <c r="B25">
-        <v>523</v>
-      </c>
-      <c r="C25">
-        <v>3</v>
-      </c>
       <c r="D25">
-        <v>4.7</v>
+        <v>0.5</v>
       </c>
       <c r="E25">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="F25">
-        <v>2.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="G25">
         <v>2.2999999999999998</v>
       </c>
       <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0.5</v>
+      </c>
+      <c r="C26">
+        <v>0.7</v>
+      </c>
+      <c r="D26">
+        <v>0.5</v>
+      </c>
+      <c r="E26">
+        <v>0.7</v>
+      </c>
+      <c r="F26">
+        <v>0.8</v>
+      </c>
+      <c r="G26">
+        <v>1.3</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>0.5</v>
+      </c>
+      <c r="C27">
+        <v>0.7</v>
+      </c>
+      <c r="D27">
+        <v>0.5</v>
+      </c>
+      <c r="E27">
+        <v>0.7</v>
+      </c>
+      <c r="F27">
+        <v>0.8</v>
+      </c>
+      <c r="G27">
+        <v>1.3</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>4.7</v>
+      </c>
+      <c r="D28">
+        <v>0.5</v>
+      </c>
+      <c r="E28">
+        <v>2.6</v>
+      </c>
+      <c r="F28">
         <v>2.2999999999999998</v>
-      </c>
-      <c r="I25">
-        <v>2</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26">
-        <v>2470</v>
-      </c>
-      <c r="B26">
-        <v>642</v>
-      </c>
-      <c r="C26">
-        <v>0.5</v>
-      </c>
-      <c r="D26">
-        <v>0.7</v>
-      </c>
-      <c r="E26">
-        <v>0.5</v>
-      </c>
-      <c r="F26">
-        <v>0.7</v>
-      </c>
-      <c r="G26">
-        <v>0.8</v>
-      </c>
-      <c r="H26">
-        <v>1.3</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27">
-        <v>2470</v>
-      </c>
-      <c r="B27">
-        <v>652</v>
-      </c>
-      <c r="C27">
-        <v>0.5</v>
-      </c>
-      <c r="D27">
-        <v>0.7</v>
-      </c>
-      <c r="E27">
-        <v>0.5</v>
-      </c>
-      <c r="F27">
-        <v>0.7</v>
-      </c>
-      <c r="G27">
-        <v>0.8</v>
-      </c>
-      <c r="H27">
-        <v>1.3</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28">
-        <v>5450</v>
-      </c>
-      <c r="B28">
-        <v>533</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
-      </c>
-      <c r="D28">
-        <v>4.7</v>
-      </c>
-      <c r="E28">
-        <v>0.5</v>
-      </c>
-      <c r="F28">
-        <v>2.6</v>
       </c>
       <c r="G28">
         <v>2.2999999999999998</v>
       </c>
       <c r="H28">
-        <v>2.2999999999999998</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>2</v>
       </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29">
-        <v>2434</v>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>22</v>
       </c>
       <c r="B29">
-        <v>236</v>
+        <v>3</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="D29">
-        <v>2.6</v>
+        <v>0.5</v>
       </c>
       <c r="E29">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="F29">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>2.6</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <v>2.6</v>
+      </c>
+      <c r="F30">
         <v>1.6</v>
       </c>
-      <c r="H29">
-        <v>2</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>2434</v>
-      </c>
-      <c r="B30">
-        <v>226</v>
-      </c>
-      <c r="C30">
-        <v>3</v>
-      </c>
-      <c r="D30">
-        <v>2.6</v>
-      </c>
-      <c r="E30">
-        <v>0.5</v>
-      </c>
-      <c r="F30">
-        <v>2.6</v>
-      </c>
       <c r="G30">
+        <v>2</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>1.9</v>
+      </c>
+      <c r="D31">
+        <v>0.5</v>
+      </c>
+      <c r="E31">
+        <v>1.9</v>
+      </c>
+      <c r="F31">
+        <v>1.4</v>
+      </c>
+      <c r="G31">
+        <v>1.7</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>1.9</v>
+      </c>
+      <c r="D32">
+        <v>0.5</v>
+      </c>
+      <c r="E32">
+        <v>1.9</v>
+      </c>
+      <c r="F32">
+        <v>1.4</v>
+      </c>
+      <c r="G32">
+        <v>1.7</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33">
+        <v>1.5</v>
+      </c>
+      <c r="C33">
+        <v>1.5</v>
+      </c>
+      <c r="D33">
+        <v>0.5</v>
+      </c>
+      <c r="E33">
+        <v>1.5</v>
+      </c>
+      <c r="F33">
+        <v>1.3</v>
+      </c>
+      <c r="G33">
+        <v>1.7</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>1.5</v>
+      </c>
+      <c r="C34">
+        <v>1.5</v>
+      </c>
+      <c r="D34">
+        <v>0.5</v>
+      </c>
+      <c r="E34">
+        <v>1.5</v>
+      </c>
+      <c r="F34">
+        <v>1.3</v>
+      </c>
+      <c r="G34">
+        <v>1.7</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>3.3</v>
+      </c>
+      <c r="C35">
+        <v>2.8</v>
+      </c>
+      <c r="D35">
+        <v>0.5</v>
+      </c>
+      <c r="E35">
+        <v>2.8</v>
+      </c>
+      <c r="F35">
+        <v>4.7</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>2.1</v>
+      </c>
+      <c r="D36">
+        <v>0.5</v>
+      </c>
+      <c r="E36">
+        <v>1.9</v>
+      </c>
+      <c r="F36">
+        <v>1.7</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2.1</v>
+      </c>
+      <c r="D37">
+        <v>0.5</v>
+      </c>
+      <c r="E37">
+        <v>1.9</v>
+      </c>
+      <c r="F37">
+        <v>1.7</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38">
+        <v>3.3</v>
+      </c>
+      <c r="C38">
+        <v>2.8</v>
+      </c>
+      <c r="D38">
+        <v>0.5</v>
+      </c>
+      <c r="E38">
+        <v>2.8</v>
+      </c>
+      <c r="F38">
+        <v>4.7</v>
+      </c>
+      <c r="G38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>2.6</v>
+      </c>
+      <c r="D39">
+        <v>0.5</v>
+      </c>
+      <c r="E39">
+        <v>2.6</v>
+      </c>
+      <c r="F39">
         <v>1.6</v>
       </c>
-      <c r="H30">
-        <v>2</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>3.5</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
-        <v>2434</v>
-      </c>
-      <c r="B31">
-        <v>632</v>
-      </c>
-      <c r="C31">
-        <v>2</v>
-      </c>
-      <c r="D31">
-        <v>1.9</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>1.9</v>
-      </c>
-      <c r="G31">
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>2.6</v>
+      </c>
+      <c r="D40">
+        <v>0.5</v>
+      </c>
+      <c r="E40">
+        <v>2.6</v>
+      </c>
+      <c r="F40">
+        <v>1.6</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41">
+        <v>1.5</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41">
+        <v>0.5</v>
+      </c>
+      <c r="E41">
+        <v>1.5</v>
+      </c>
+      <c r="F41">
+        <v>1.3</v>
+      </c>
+      <c r="G41">
+        <v>1.7</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42">
+        <v>1.5</v>
+      </c>
+      <c r="C42">
+        <v>1.5</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>1.5</v>
+      </c>
+      <c r="F42">
+        <v>1.3</v>
+      </c>
+      <c r="G42">
+        <v>1.7</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>1.9</v>
+      </c>
+      <c r="D43">
+        <v>0.5</v>
+      </c>
+      <c r="E43">
+        <v>1.9</v>
+      </c>
+      <c r="F43">
         <v>1.4</v>
       </c>
-      <c r="H31">
-        <v>1.7</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32">
-        <v>2434</v>
-      </c>
-      <c r="B32">
-        <v>622</v>
-      </c>
-      <c r="C32">
-        <v>2</v>
-      </c>
-      <c r="D32">
-        <v>1.9</v>
-      </c>
-      <c r="E32">
-        <v>0.5</v>
-      </c>
-      <c r="F32">
-        <v>1.9</v>
-      </c>
-      <c r="G32">
+      <c r="G43">
+        <v>1.7</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>1.9</v>
+      </c>
+      <c r="D44">
+        <v>0.5</v>
+      </c>
+      <c r="E44">
+        <v>1.9</v>
+      </c>
+      <c r="F44">
         <v>1.4</v>
       </c>
-      <c r="H32">
-        <v>1.7</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33">
-        <v>5450</v>
-      </c>
-      <c r="B33">
-        <v>224</v>
-      </c>
-      <c r="C33">
-        <v>1.5</v>
-      </c>
-      <c r="D33">
-        <v>1.5</v>
-      </c>
-      <c r="E33">
-        <v>0.5</v>
-      </c>
-      <c r="F33">
-        <v>1.5</v>
-      </c>
-      <c r="G33">
+      <c r="G44">
+        <v>1.7</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45">
+        <v>2.8</v>
+      </c>
+      <c r="C45">
+        <v>5.4</v>
+      </c>
+      <c r="D45">
+        <v>0.5</v>
+      </c>
+      <c r="E45">
+        <v>3.1</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45">
+        <v>3.3</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>26</v>
+      </c>
+      <c r="B46">
+        <v>2.5</v>
+      </c>
+      <c r="C46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D46">
+        <v>0.5</v>
+      </c>
+      <c r="E46">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F46">
+        <v>1.5</v>
+      </c>
+      <c r="G46">
+        <v>1.7</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>30</v>
+      </c>
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+      <c r="C47">
+        <v>1.5</v>
+      </c>
+      <c r="D47">
+        <v>0.5</v>
+      </c>
+      <c r="E47">
+        <v>1.5</v>
+      </c>
+      <c r="F47">
         <v>1.3</v>
       </c>
-      <c r="H33">
-        <v>1.7</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34">
-        <v>5450</v>
-      </c>
-      <c r="B34">
-        <v>234</v>
-      </c>
-      <c r="C34">
-        <v>1.5</v>
-      </c>
-      <c r="D34">
-        <v>1.5</v>
-      </c>
-      <c r="E34">
-        <v>0.5</v>
-      </c>
-      <c r="F34">
-        <v>1.5</v>
-      </c>
-      <c r="G34">
+      <c r="G47">
+        <v>1.7</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48">
+        <v>1.5</v>
+      </c>
+      <c r="C48">
+        <v>1.5</v>
+      </c>
+      <c r="D48">
+        <v>0.5</v>
+      </c>
+      <c r="E48">
+        <v>1.5</v>
+      </c>
+      <c r="F48">
         <v>1.3</v>
       </c>
-      <c r="H34">
-        <v>1.7</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35">
-        <v>2471</v>
-      </c>
-      <c r="B35">
-        <v>424</v>
-      </c>
-      <c r="C35">
+      <c r="G48">
+        <v>1.7</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>33</v>
+      </c>
+      <c r="B49">
+        <v>1.5</v>
+      </c>
+      <c r="C49">
+        <v>1.5</v>
+      </c>
+      <c r="D49">
+        <v>0.5</v>
+      </c>
+      <c r="E49">
+        <v>1.5</v>
+      </c>
+      <c r="F49">
+        <v>1.3</v>
+      </c>
+      <c r="G49">
+        <v>1.7</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>37</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>2.6</v>
+      </c>
+      <c r="D50">
+        <v>0.5</v>
+      </c>
+      <c r="E50">
+        <v>2.6</v>
+      </c>
+      <c r="F50">
+        <v>1.6</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>2.6</v>
+      </c>
+      <c r="D51">
+        <v>0.5</v>
+      </c>
+      <c r="E51">
+        <v>2.6</v>
+      </c>
+      <c r="F51">
+        <v>1.6</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>1.5</v>
+      </c>
+      <c r="C52">
+        <v>1.5</v>
+      </c>
+      <c r="D52">
+        <v>0.5</v>
+      </c>
+      <c r="E52">
+        <v>1.5</v>
+      </c>
+      <c r="F52">
+        <v>1.3</v>
+      </c>
+      <c r="G52">
+        <v>1.7</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B53">
+        <v>2.5</v>
+      </c>
+      <c r="C53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D53">
+        <v>0.5</v>
+      </c>
+      <c r="E53">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F53">
+        <v>1.5</v>
+      </c>
+      <c r="G53">
+        <v>1.7</v>
+      </c>
+      <c r="H53">
+        <v>4</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54">
         <v>3.3</v>
       </c>
-      <c r="D35">
+      <c r="C54">
         <v>2.8</v>
       </c>
-      <c r="E35">
-        <v>0.5</v>
-      </c>
-      <c r="F35">
+      <c r="D54">
+        <v>0.5</v>
+      </c>
+      <c r="E54">
         <v>2.8</v>
       </c>
-      <c r="G35">
+      <c r="F54">
         <v>4.7</v>
       </c>
-      <c r="H35">
+      <c r="G54">
         <v>4</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36">
-        <v>5450</v>
-      </c>
-      <c r="B36">
-        <v>625</v>
-      </c>
-      <c r="C36">
-        <v>2</v>
-      </c>
-      <c r="D36">
-        <v>2.1</v>
-      </c>
-      <c r="E36">
-        <v>0.5</v>
-      </c>
-      <c r="F36">
-        <v>1.9</v>
-      </c>
-      <c r="G36">
-        <v>1.7</v>
-      </c>
-      <c r="H36">
-        <v>2</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37">
-        <v>5450</v>
-      </c>
-      <c r="B37">
-        <v>635</v>
-      </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-      <c r="D37">
-        <v>2.1</v>
-      </c>
-      <c r="E37">
-        <v>0.5</v>
-      </c>
-      <c r="F37">
-        <v>1.9</v>
-      </c>
-      <c r="G37">
-        <v>1.7</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38">
-        <v>2471</v>
-      </c>
-      <c r="B38">
-        <v>434</v>
-      </c>
-      <c r="C38">
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>1.5</v>
+      </c>
+      <c r="C55">
+        <v>1.5</v>
+      </c>
+      <c r="D55">
+        <v>0.5</v>
+      </c>
+      <c r="E55">
+        <v>1.5</v>
+      </c>
+      <c r="F55">
+        <v>1.3</v>
+      </c>
+      <c r="G55">
+        <v>1.7</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56">
+        <v>1.5</v>
+      </c>
+      <c r="C56">
+        <v>1.5</v>
+      </c>
+      <c r="D56">
+        <v>0.5</v>
+      </c>
+      <c r="E56">
+        <v>1.5</v>
+      </c>
+      <c r="F56">
+        <v>1.3</v>
+      </c>
+      <c r="G56">
+        <v>1.7</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57">
         <v>3.3</v>
       </c>
-      <c r="D38">
+      <c r="C57">
         <v>2.8</v>
       </c>
-      <c r="E38">
-        <v>0.5</v>
-      </c>
-      <c r="F38">
+      <c r="D57">
+        <v>0.5</v>
+      </c>
+      <c r="E57">
         <v>2.8</v>
       </c>
-      <c r="G38">
+      <c r="F57">
         <v>4.7</v>
       </c>
-      <c r="H38">
+      <c r="G57">
         <v>4</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
-      <c r="A39">
-        <v>2434</v>
-      </c>
-      <c r="B39">
-        <v>224</v>
-      </c>
-      <c r="C39">
-        <v>3</v>
-      </c>
-      <c r="D39">
-        <v>2.6</v>
-      </c>
-      <c r="E39">
-        <v>0.5</v>
-      </c>
-      <c r="F39">
-        <v>2.6</v>
-      </c>
-      <c r="G39">
-        <v>1.6</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1.9</v>
+      </c>
+      <c r="D58">
+        <v>0.5</v>
+      </c>
+      <c r="E58">
+        <v>1.9</v>
+      </c>
+      <c r="F58">
+        <v>1.4</v>
+      </c>
+      <c r="G58">
+        <v>1.7</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1.9</v>
+      </c>
+      <c r="D59">
+        <v>0.5</v>
+      </c>
+      <c r="E59">
+        <v>1.9</v>
+      </c>
+      <c r="F59">
+        <v>1.4</v>
+      </c>
+      <c r="G59">
+        <v>1.7</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60">
+        <v>1.5</v>
+      </c>
+      <c r="C60">
+        <v>1.5</v>
+      </c>
+      <c r="D60">
+        <v>0.5</v>
+      </c>
+      <c r="E60">
+        <v>1.5</v>
+      </c>
+      <c r="F60">
+        <v>1.3</v>
+      </c>
+      <c r="G60">
+        <v>1.7</v>
+      </c>
+      <c r="H60">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>1.5</v>
+      </c>
+      <c r="C61">
+        <v>1.5</v>
+      </c>
+      <c r="D61">
+        <v>0.5</v>
+      </c>
+      <c r="E61">
+        <v>1.5</v>
+      </c>
+      <c r="F61">
+        <v>1.3</v>
+      </c>
+      <c r="G61">
+        <v>1.7</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>52</v>
+      </c>
+      <c r="B62">
+        <v>3</v>
+      </c>
+      <c r="C62">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40">
-        <v>2434</v>
-      </c>
-      <c r="B40">
-        <v>234</v>
-      </c>
-      <c r="C40">
-        <v>3</v>
-      </c>
-      <c r="D40">
-        <v>2.6</v>
-      </c>
-      <c r="E40">
-        <v>0.5</v>
-      </c>
-      <c r="F40">
-        <v>2.6</v>
-      </c>
-      <c r="G40">
-        <v>1.6</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
-      <c r="A41">
-        <v>5444</v>
-      </c>
-      <c r="B41">
-        <v>243</v>
-      </c>
-      <c r="C41">
-        <v>1.5</v>
-      </c>
-      <c r="D41">
-        <v>1.5</v>
-      </c>
-      <c r="E41">
-        <v>0.5</v>
-      </c>
-      <c r="F41">
-        <v>1.5</v>
-      </c>
-      <c r="G41">
-        <v>1.3</v>
-      </c>
-      <c r="H41">
-        <v>1.7</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
-      <c r="A42">
-        <v>5444</v>
-      </c>
-      <c r="B42">
-        <v>253</v>
-      </c>
-      <c r="C42">
-        <v>1.5</v>
-      </c>
-      <c r="D42">
-        <v>1.5</v>
-      </c>
-      <c r="E42">
-        <v>0.5</v>
-      </c>
-      <c r="F42">
-        <v>1.5</v>
-      </c>
-      <c r="G42">
-        <v>1.3</v>
-      </c>
-      <c r="H42">
-        <v>1.7</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="A43">
-        <v>2434</v>
-      </c>
-      <c r="B43">
-        <v>633</v>
-      </c>
-      <c r="C43">
-        <v>2</v>
-      </c>
-      <c r="D43">
-        <v>1.9</v>
-      </c>
-      <c r="E43">
-        <v>0.5</v>
-      </c>
-      <c r="F43">
-        <v>1.9</v>
-      </c>
-      <c r="G43">
-        <v>1.4</v>
-      </c>
-      <c r="H43">
-        <v>1.7</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="A44">
-        <v>2434</v>
-      </c>
-      <c r="B44">
-        <v>623</v>
-      </c>
-      <c r="C44">
-        <v>2</v>
-      </c>
-      <c r="D44">
-        <v>1.9</v>
-      </c>
-      <c r="E44">
-        <v>0.5</v>
-      </c>
-      <c r="F44">
-        <v>1.9</v>
-      </c>
-      <c r="G44">
-        <v>1.4</v>
-      </c>
-      <c r="H44">
-        <v>1.7</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
-      <c r="A45">
-        <v>2470</v>
-      </c>
-      <c r="B45">
-        <v>405</v>
-      </c>
-      <c r="C45">
-        <v>2.8</v>
-      </c>
-      <c r="D45">
-        <v>5.4</v>
-      </c>
-      <c r="E45">
-        <v>0.5</v>
-      </c>
-      <c r="F45">
-        <v>3.1</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>3.3</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10">
-      <c r="A46">
-        <v>5444</v>
-      </c>
-      <c r="B46">
-        <v>733</v>
-      </c>
-      <c r="C46">
-        <v>2.5</v>
-      </c>
-      <c r="D46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E46">
-        <v>0.5</v>
-      </c>
-      <c r="F46">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G46">
-        <v>1.5</v>
-      </c>
-      <c r="H46">
-        <v>1.7</v>
-      </c>
-      <c r="I46">
-        <v>4</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
-      <c r="A47">
-        <v>5450</v>
-      </c>
-      <c r="B47">
-        <v>223</v>
-      </c>
-      <c r="C47">
-        <v>1.5</v>
-      </c>
-      <c r="D47">
-        <v>1.5</v>
-      </c>
-      <c r="E47">
-        <v>0.5</v>
-      </c>
-      <c r="F47">
-        <v>1.5</v>
-      </c>
-      <c r="G47">
-        <v>1.3</v>
-      </c>
-      <c r="H47">
-        <v>1.7</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
-      <c r="A48">
-        <v>5450</v>
-      </c>
-      <c r="B48">
-        <v>233</v>
-      </c>
-      <c r="C48">
-        <v>1.5</v>
-      </c>
-      <c r="D48">
-        <v>1.5</v>
-      </c>
-      <c r="E48">
-        <v>0.5</v>
-      </c>
-      <c r="F48">
-        <v>1.5</v>
-      </c>
-      <c r="G48">
-        <v>1.3</v>
-      </c>
-      <c r="H48">
-        <v>1.7</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
-      <c r="A49">
-        <v>5444</v>
-      </c>
-      <c r="B49">
-        <v>244</v>
-      </c>
-      <c r="C49">
-        <v>1.5</v>
-      </c>
-      <c r="D49">
-        <v>1.5</v>
-      </c>
-      <c r="E49">
-        <v>0.5</v>
-      </c>
-      <c r="F49">
-        <v>1.5</v>
-      </c>
-      <c r="G49">
-        <v>1.3</v>
-      </c>
-      <c r="H49">
-        <v>1.7</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
-      <c r="A50">
-        <v>2434</v>
-      </c>
-      <c r="B50">
-        <v>227</v>
-      </c>
-      <c r="C50">
-        <v>3</v>
-      </c>
-      <c r="D50">
-        <v>2.6</v>
-      </c>
-      <c r="E50">
-        <v>0.5</v>
-      </c>
-      <c r="F50">
-        <v>2.6</v>
-      </c>
-      <c r="G50">
-        <v>1.6</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51">
-        <v>2434</v>
-      </c>
-      <c r="B51">
-        <v>237</v>
-      </c>
-      <c r="C51">
-        <v>3</v>
-      </c>
-      <c r="D51">
-        <v>2.6</v>
-      </c>
-      <c r="E51">
-        <v>0.5</v>
-      </c>
-      <c r="F51">
-        <v>2.6</v>
-      </c>
-      <c r="G51">
-        <v>1.6</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
-      <c r="A52">
-        <v>5444</v>
-      </c>
-      <c r="B52">
-        <v>254</v>
-      </c>
-      <c r="C52">
-        <v>1.5</v>
-      </c>
-      <c r="D52">
-        <v>1.5</v>
-      </c>
-      <c r="E52">
-        <v>0.5</v>
-      </c>
-      <c r="F52">
-        <v>1.5</v>
-      </c>
-      <c r="G52">
-        <v>1.3</v>
-      </c>
-      <c r="H52">
-        <v>1.7</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
-      <c r="A53">
-        <v>5444</v>
-      </c>
-      <c r="B53">
-        <v>723</v>
-      </c>
-      <c r="C53">
-        <v>2.5</v>
-      </c>
-      <c r="D53">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="E53">
-        <v>0.5</v>
-      </c>
-      <c r="F53">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="G53">
-        <v>1.5</v>
-      </c>
-      <c r="H53">
-        <v>1.7</v>
-      </c>
-      <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
-      <c r="A54">
-        <v>2434</v>
-      </c>
-      <c r="B54">
-        <v>422</v>
-      </c>
-      <c r="C54">
-        <v>3.3</v>
-      </c>
-      <c r="D54">
-        <v>2.8</v>
-      </c>
-      <c r="E54">
-        <v>0.5</v>
-      </c>
-      <c r="F54">
-        <v>2.8</v>
-      </c>
-      <c r="G54">
-        <v>4.7</v>
-      </c>
-      <c r="H54">
-        <v>4</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
-      <c r="A55">
-        <v>5450</v>
-      </c>
-      <c r="B55">
-        <v>226</v>
-      </c>
-      <c r="C55">
-        <v>1.5</v>
-      </c>
-      <c r="D55">
-        <v>1.5</v>
-      </c>
-      <c r="E55">
-        <v>0.5</v>
-      </c>
-      <c r="F55">
-        <v>1.5</v>
-      </c>
-      <c r="G55">
-        <v>1.3</v>
-      </c>
-      <c r="H55">
-        <v>1.7</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56">
-        <v>5450</v>
-      </c>
-      <c r="B56">
-        <v>236</v>
-      </c>
-      <c r="C56">
-        <v>1.5</v>
-      </c>
-      <c r="D56">
-        <v>1.5</v>
-      </c>
-      <c r="E56">
-        <v>0.5</v>
-      </c>
-      <c r="F56">
-        <v>1.5</v>
-      </c>
-      <c r="G56">
-        <v>1.3</v>
-      </c>
-      <c r="H56">
-        <v>1.7</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57">
-        <v>2434</v>
-      </c>
-      <c r="B57">
-        <v>432</v>
-      </c>
-      <c r="C57">
-        <v>3.3</v>
-      </c>
-      <c r="D57">
-        <v>2.8</v>
-      </c>
-      <c r="E57">
-        <v>0.5</v>
-      </c>
-      <c r="F57">
-        <v>2.8</v>
-      </c>
-      <c r="G57">
-        <v>4.7</v>
-      </c>
-      <c r="H57">
-        <v>4</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
-      <c r="A58">
-        <v>2434</v>
-      </c>
-      <c r="B58">
-        <v>634</v>
-      </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58">
-        <v>1.9</v>
-      </c>
-      <c r="E58">
-        <v>0.5</v>
-      </c>
-      <c r="F58">
-        <v>1.9</v>
-      </c>
-      <c r="G58">
-        <v>1.4</v>
-      </c>
-      <c r="H58">
-        <v>1.7</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
-      <c r="A59">
-        <v>2434</v>
-      </c>
-      <c r="B59">
-        <v>624</v>
-      </c>
-      <c r="C59">
-        <v>2</v>
-      </c>
-      <c r="D59">
-        <v>1.9</v>
-      </c>
-      <c r="E59">
-        <v>0.5</v>
-      </c>
-      <c r="F59">
-        <v>1.9</v>
-      </c>
-      <c r="G59">
-        <v>1.4</v>
-      </c>
-      <c r="H59">
-        <v>1.7</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
-      <c r="A60">
-        <v>5450</v>
-      </c>
-      <c r="B60">
-        <v>225</v>
-      </c>
-      <c r="C60">
-        <v>1.5</v>
-      </c>
-      <c r="D60">
-        <v>1.5</v>
-      </c>
-      <c r="E60">
-        <v>0.5</v>
-      </c>
-      <c r="F60">
-        <v>1.5</v>
-      </c>
-      <c r="G60">
-        <v>1.3</v>
-      </c>
-      <c r="H60">
-        <v>1.7</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10">
-      <c r="A61">
-        <v>5450</v>
-      </c>
-      <c r="B61">
-        <v>235</v>
-      </c>
-      <c r="C61">
-        <v>1.5</v>
-      </c>
-      <c r="D61">
-        <v>1.5</v>
-      </c>
-      <c r="E61">
-        <v>0.5</v>
-      </c>
-      <c r="F61">
-        <v>1.5</v>
-      </c>
-      <c r="G61">
-        <v>1.3</v>
-      </c>
-      <c r="H61">
-        <v>1.7</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
-      <c r="A62">
-        <v>5444</v>
-      </c>
-      <c r="B62">
-        <v>206</v>
-      </c>
-      <c r="C62">
-        <v>3</v>
-      </c>
       <c r="D62">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="E62">
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="F62">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="G62">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
         <v>3.5</v>
       </c>
     </row>
@@ -2628,36 +2436,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -2686,7 +2494,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -2715,7 +2523,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>1.5</v>
@@ -2744,7 +2552,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -2773,7 +2581,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -2802,7 +2610,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7">
         <v>0.5</v>
@@ -2831,7 +2639,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -2860,7 +2668,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <v>0.5</v>
@@ -2889,7 +2697,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -2918,7 +2726,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>1.5</v>
@@ -2947,7 +2755,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>1.5</v>
@@ -2976,7 +2784,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>3.3</v>
@@ -3005,7 +2813,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>1.5</v>
@@ -3034,7 +2842,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15">
         <v>3.3</v>
@@ -3063,7 +2871,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3092,7 +2900,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -3121,7 +2929,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B18">
         <v>1.5</v>
@@ -3150,7 +2958,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3179,7 +2987,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -3208,7 +3016,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -3237,7 +3045,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -3266,7 +3074,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B23">
         <v>0.5</v>
@@ -3295,7 +3103,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B24">
         <v>2.5</v>
@@ -3324,7 +3132,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B25">
         <v>3.3</v>
@@ -3353,7 +3161,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B26">
         <v>3</v>
@@ -3382,7 +3190,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -3411,7 +3219,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>1.5</v>
@@ -3440,7 +3248,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29">
         <v>3</v>
@@ -3469,7 +3277,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -3498,7 +3306,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>1.5</v>
@@ -3527,7 +3335,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -3556,7 +3364,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33">
         <v>2.5</v>
@@ -3585,7 +3393,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B34">
         <v>1.5</v>
@@ -3614,7 +3422,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>2.5</v>
@@ -3643,7 +3451,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3672,7 +3480,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -3701,7 +3509,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38">
         <v>1.5</v>
@@ -3730,7 +3538,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39">
         <v>1.5</v>
@@ -3759,7 +3567,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40">
         <v>1.5</v>
@@ -3788,7 +3596,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -3817,7 +3625,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3846,7 +3654,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3875,7 +3683,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B44">
         <v>0.5</v>
@@ -3904,7 +3712,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3933,7 +3741,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3962,7 +3770,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B47">
         <v>2.8</v>
@@ -3991,7 +3799,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -4020,7 +3828,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49">
         <v>3.3</v>
@@ -4049,7 +3857,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50">
         <v>3.3</v>
@@ -4078,7 +3886,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -4107,7 +3915,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>1.5</v>
@@ -4136,7 +3944,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B53">
         <v>3.3</v>
@@ -4165,7 +3973,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -4194,7 +4002,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -4223,7 +4031,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -4252,7 +4060,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>9.8999999999999986</v>
@@ -4281,7 +4089,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -4310,7 +4118,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B59">
         <v>3.3</v>
@@ -4339,7 +4147,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B60">
         <v>9.9</v>
@@ -4368,7 +4176,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -4397,7 +4205,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B62">
         <v>3</v>
@@ -4434,7 +4242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E1FD15B-B43A-DA4E-A8EC-9E0A0D0E019D}">
   <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -4442,36 +4250,36 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -4500,7 +4308,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -4529,7 +4337,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -4558,7 +4366,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -4587,7 +4395,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -4616,7 +4424,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -4645,7 +4453,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -4674,7 +4482,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -4703,7 +4511,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -4732,7 +4540,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -4761,7 +4569,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -4790,7 +4598,7 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -4819,7 +4627,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -4848,7 +4656,7 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>1.5</v>
@@ -4877,7 +4685,7 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -4906,7 +4714,7 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>1.5</v>
@@ -4935,7 +4743,7 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -4964,7 +4772,7 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>1.5</v>
@@ -4993,7 +4801,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>1.5</v>
@@ -5022,7 +4830,7 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -5051,7 +4859,7 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>0.5</v>
@@ -5080,7 +4888,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -5109,7 +4917,7 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -5138,7 +4946,7 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>1.5</v>
@@ -5167,7 +4975,7 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>0.5</v>
@@ -5196,7 +5004,7 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -5225,7 +5033,7 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>2.5</v>
@@ -5254,7 +5062,7 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -5283,7 +5091,7 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>1.5</v>
@@ -5312,7 +5120,7 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>1.5</v>
@@ -5341,7 +5149,7 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>1.5</v>
@@ -5370,7 +5178,7 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -5399,7 +5207,7 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34">
         <v>1.5</v>
@@ -5428,7 +5236,7 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35">
         <v>1.5</v>
@@ -5457,7 +5265,7 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5486,7 +5294,7 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37">
         <v>1.5</v>
@@ -5515,7 +5323,7 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -5544,7 +5352,7 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -5573,7 +5381,7 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0.5</v>
@@ -5602,7 +5410,7 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>2.5</v>
@@ -5631,7 +5439,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0.5</v>
@@ -5660,7 +5468,7 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5689,7 +5497,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>1.5</v>
@@ -5718,7 +5526,7 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>3.3</v>
@@ -5747,7 +5555,7 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -5776,7 +5584,7 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5805,7 +5613,7 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -5834,7 +5642,7 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -5863,7 +5671,7 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50">
         <v>3.3</v>
@@ -5892,7 +5700,7 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -5921,7 +5729,7 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -5950,7 +5758,7 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B53">
         <v>3.3</v>
@@ -5979,7 +5787,7 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -6008,7 +5816,7 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55">
         <v>3.3</v>
@@ -6037,7 +5845,7 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
         <v>2.5</v>
@@ -6066,7 +5874,7 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B57">
         <v>2.8</v>
@@ -6095,7 +5903,7 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B58">
         <v>3.3</v>
@@ -6124,7 +5932,7 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>3.3</v>
@@ -6153,7 +5961,7 @@
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B60">
         <v>9.8999999999999986</v>
@@ -6182,7 +5990,7 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B61">
         <v>3.3</v>
@@ -6211,7 +6019,7 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B62">
         <v>9.9</v>

--- a/PBS_assy_sequence.xlsx
+++ b/PBS_assy_sequence.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woojonghun/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jhwoo/Projects/study/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85749716-835C-B54E-BF17-2E4ECC40D333}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E1C4E3D-EBFD-DF42-A0A7-DAD7CB0AF246}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="10280" windowWidth="27900" windowHeight="16940" xr2:uid="{105DBEF7-2957-DA49-A4ED-B6D56702FAF8}"/>
+    <workbookView xWindow="12560" yWindow="6900" windowWidth="27900" windowHeight="16940" xr2:uid="{105DBEF7-2957-DA49-A4ED-B6D56702FAF8}"/>
   </bookViews>
   <sheets>
     <sheet name="gen_000" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="71">
   <si>
     <t>2471_631</t>
   </si>
@@ -251,6 +251,10 @@
   </si>
   <si>
     <t>sub_assy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2471_433</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -618,7 +622,7 @@
   <dimension ref="A1:I62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -653,6 +657,9 @@
       </c>
     </row>
     <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>70</v>
+      </c>
       <c r="B2">
         <v>3.3</v>
       </c>
